--- a/EMS.WebApp/FileTemplate/Template.xlsx
+++ b/EMS.WebApp/FileTemplate/Template.xlsx
@@ -150,12 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,90 +447,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="19" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="E2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="E3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
